--- a/resources/experiment 1/predictions/multiple/RandomForestRegressor/incidence/Neuropatías (INC).xlsx
+++ b/resources/experiment 1/predictions/multiple/RandomForestRegressor/incidence/Neuropatías (INC).xlsx
@@ -467,1422 +467,1422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66.05671053247457</v>
+        <v>66.18614925373119</v>
       </c>
       <c r="B2" t="n">
-        <v>50.17765149789421</v>
+        <v>51.424</v>
       </c>
       <c r="C2" t="n">
-        <v>79.93635793650795</v>
+        <v>79.92399999999996</v>
       </c>
       <c r="D2" t="n">
-        <v>22.25278131851556</v>
+        <v>22.33476616915415</v>
       </c>
       <c r="E2" t="n">
-        <v>14.61430687830688</v>
+        <v>14.756</v>
       </c>
       <c r="F2" t="n">
-        <v>30.50391587301586</v>
+        <v>30.16399999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.959875511332219</v>
+        <v>6.998766169154218</v>
       </c>
       <c r="B3" t="n">
-        <v>3.571115195915195</v>
+        <v>3.476000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8023619047619</v>
+        <v>11.644</v>
       </c>
       <c r="D3" t="n">
-        <v>2.488346884624482</v>
+        <v>2.496895522388045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9794285714285712</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="F3" t="n">
-        <v>4.387021428571422</v>
+        <v>4.311999999999997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15.11436661138752</v>
+        <v>15.08666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>7.993492677400575</v>
+        <v>8.143999999999993</v>
       </c>
       <c r="C4" t="n">
-        <v>23.21233333333333</v>
+        <v>23.124</v>
       </c>
       <c r="D4" t="n">
-        <v>4.417010613598668</v>
+        <v>4.410049751243775</v>
       </c>
       <c r="E4" t="n">
-        <v>1.982557671957673</v>
+        <v>1.931999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>7.344999999999996</v>
+        <v>7.216000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.436402005843773</v>
+        <v>8.425830845771129</v>
       </c>
       <c r="B5" t="n">
-        <v>4.243598207783498</v>
+        <v>4.112000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>12.82523809523809</v>
+        <v>12.86799999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>3.356021310116079</v>
+        <v>3.361213930348253</v>
       </c>
       <c r="E5" t="n">
-        <v>1.388675672475675</v>
+        <v>1.376</v>
       </c>
       <c r="F5" t="n">
-        <v>5.889961111111109</v>
+        <v>5.872000000000005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33.52333594461547</v>
+        <v>33.60997014925364</v>
       </c>
       <c r="B6" t="n">
-        <v>21.78128594407542</v>
+        <v>21.552</v>
       </c>
       <c r="C6" t="n">
-        <v>47.05266666666667</v>
+        <v>47.088</v>
       </c>
       <c r="D6" t="n">
-        <v>11.15161841585721</v>
+        <v>11.17619900497511</v>
       </c>
       <c r="E6" t="n">
-        <v>6.460174603174594</v>
+        <v>6.519999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>16.54840793650794</v>
+        <v>16.43599999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61.6734078496405</v>
+        <v>61.46033830845752</v>
       </c>
       <c r="B7" t="n">
-        <v>45.04569589016173</v>
+        <v>44.96799999999998</v>
       </c>
       <c r="C7" t="n">
-        <v>77.15330476190476</v>
+        <v>77.44000000000007</v>
       </c>
       <c r="D7" t="n">
-        <v>17.69040265339966</v>
+        <v>17.51812935323383</v>
       </c>
       <c r="E7" t="n">
-        <v>11.14046666666667</v>
+        <v>11.14799999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>25.79973492063493</v>
+        <v>25.408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>90.94486869620141</v>
+        <v>90.81233830845767</v>
       </c>
       <c r="B8" t="n">
-        <v>82.77075094361609</v>
+        <v>82.73199999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>95.98307692307689</v>
+        <v>95.95199999999997</v>
       </c>
       <c r="D8" t="n">
-        <v>27.78537005448933</v>
+        <v>27.99404975124365</v>
       </c>
       <c r="E8" t="n">
-        <v>20.33168730158729</v>
+        <v>20.408</v>
       </c>
       <c r="F8" t="n">
-        <v>35.29392063492061</v>
+        <v>35.45599999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31.40410100292185</v>
+        <v>31.376895522388</v>
       </c>
       <c r="B9" t="n">
-        <v>19.36600945550839</v>
+        <v>18.156</v>
       </c>
       <c r="C9" t="n">
-        <v>44.30466666666666</v>
+        <v>43.85999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>9.774696746426596</v>
+        <v>9.684616915422877</v>
       </c>
       <c r="E9" t="n">
-        <v>5.367361904761907</v>
+        <v>5.287999999999998</v>
       </c>
       <c r="F9" t="n">
-        <v>15.37231746031747</v>
+        <v>14.924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>90.98186231937443</v>
+        <v>90.93170149253727</v>
       </c>
       <c r="B10" t="n">
-        <v>82.57422862028248</v>
+        <v>82.68400000000005</v>
       </c>
       <c r="C10" t="n">
-        <v>96.16468748609488</v>
+        <v>96.14799999999995</v>
       </c>
       <c r="D10" t="n">
-        <v>30.09899276776277</v>
+        <v>29.9585074626864</v>
       </c>
       <c r="E10" t="n">
-        <v>21.85338712681656</v>
+        <v>22.37199999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>37.74044956709957</v>
+        <v>37.108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77.7108400022494</v>
+        <v>77.75329353233818</v>
       </c>
       <c r="B11" t="n">
-        <v>63.14637096264584</v>
+        <v>64.15599999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>88.33735323565324</v>
+        <v>88.63599999999997</v>
       </c>
       <c r="D11" t="n">
-        <v>27.21629485903808</v>
+        <v>27.43564179104469</v>
       </c>
       <c r="E11" t="n">
-        <v>18.8216253968254</v>
+        <v>18.86</v>
       </c>
       <c r="F11" t="n">
-        <v>35.66134999999998</v>
+        <v>35.73999999999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>53.32314162520721</v>
+        <v>53.17866666666656</v>
       </c>
       <c r="B12" t="n">
-        <v>35.85463459252021</v>
+        <v>35.23999999999997</v>
       </c>
       <c r="C12" t="n">
-        <v>69.80786666666664</v>
+        <v>69.89199999999997</v>
       </c>
       <c r="D12" t="n">
-        <v>19.52476616915422</v>
+        <v>19.53914427860697</v>
       </c>
       <c r="E12" t="n">
-        <v>11.8864494949495</v>
+        <v>11.592</v>
       </c>
       <c r="F12" t="n">
-        <v>28.21933333333335</v>
+        <v>28.26399999999998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88.95240823320279</v>
+        <v>89.01717412935315</v>
       </c>
       <c r="B13" t="n">
-        <v>78.96088922406067</v>
+        <v>78.83599999999998</v>
       </c>
       <c r="C13" t="n">
-        <v>95.10546813249262</v>
+        <v>95.008</v>
       </c>
       <c r="D13" t="n">
-        <v>35.17235641538075</v>
+        <v>35.1715223880596</v>
       </c>
       <c r="E13" t="n">
-        <v>25.6447360879861</v>
+        <v>25.54399999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>45.09709392470277</v>
+        <v>44.58800000000003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>84.7373352277443</v>
+        <v>84.69972139303464</v>
       </c>
       <c r="B14" t="n">
-        <v>72.98732512837165</v>
+        <v>73.37199999999993</v>
       </c>
       <c r="C14" t="n">
-        <v>92.6124576861047</v>
+        <v>92.816</v>
       </c>
       <c r="D14" t="n">
-        <v>30.93356271815508</v>
+        <v>30.97649751243763</v>
       </c>
       <c r="E14" t="n">
-        <v>22.1871671143671</v>
+        <v>22.04400000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>40.232015007215</v>
+        <v>40.472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.385434352049289</v>
+        <v>9.366427860696511</v>
       </c>
       <c r="B15" t="n">
-        <v>5.060873285875916</v>
+        <v>4.883999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07179047619048</v>
+        <v>15.04000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>4.205808678828073</v>
+        <v>4.165532338308449</v>
       </c>
       <c r="E15" t="n">
-        <v>1.84516792836793</v>
+        <v>1.835999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>7.040630952380952</v>
+        <v>7.083999999999998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>33.56388276606378</v>
+        <v>33.46772139303475</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7057092244987</v>
+        <v>21.04</v>
       </c>
       <c r="C16" t="n">
-        <v>46.30266666666667</v>
+        <v>46.76000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>11.17884881149805</v>
+        <v>11.04975124378108</v>
       </c>
       <c r="E16" t="n">
-        <v>6.488101587301579</v>
+        <v>6.371999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>16.13503333333333</v>
+        <v>16.27999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>53.40585074626863</v>
+        <v>53.22246766169146</v>
       </c>
       <c r="B17" t="n">
-        <v>35.71695053213615</v>
+        <v>36.472</v>
       </c>
       <c r="C17" t="n">
-        <v>69.80633333333334</v>
+        <v>69.98</v>
       </c>
       <c r="D17" t="n">
-        <v>19.35325671641788</v>
+        <v>19.19154228855719</v>
       </c>
       <c r="E17" t="n">
-        <v>12.2550380952381</v>
+        <v>12.404</v>
       </c>
       <c r="F17" t="n">
-        <v>27.99973333333334</v>
+        <v>27.88799999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15.11006810392484</v>
+        <v>15.06483582089552</v>
       </c>
       <c r="B18" t="n">
-        <v>7.986559344067243</v>
+        <v>8.115999999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>23.08933333333333</v>
+        <v>23.068</v>
       </c>
       <c r="D18" t="n">
-        <v>4.409945936981753</v>
+        <v>4.395920398009943</v>
       </c>
       <c r="E18" t="n">
-        <v>1.95074814814815</v>
+        <v>1.92</v>
       </c>
       <c r="F18" t="n">
-        <v>7.30433333333333</v>
+        <v>7.184000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>78.81921998066412</v>
+        <v>78.66398009950244</v>
       </c>
       <c r="B19" t="n">
-        <v>64.47344736674862</v>
+        <v>63.84800000000002</v>
       </c>
       <c r="C19" t="n">
-        <v>89.52699926739928</v>
+        <v>89.06800000000003</v>
       </c>
       <c r="D19" t="n">
-        <v>30.98012463476263</v>
+        <v>30.95785074626861</v>
       </c>
       <c r="E19" t="n">
-        <v>21.07686349206351</v>
+        <v>21.02</v>
       </c>
       <c r="F19" t="n">
-        <v>40.79970476190476</v>
+        <v>40.98400000000003</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>36.58884938798062</v>
+        <v>36.40726368159191</v>
       </c>
       <c r="B20" t="n">
-        <v>22.42184498024622</v>
+        <v>22.284</v>
       </c>
       <c r="C20" t="n">
-        <v>52.96600000000002</v>
+        <v>52.66400000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>13.31914256495301</v>
+        <v>13.34567164179104</v>
       </c>
       <c r="E20" t="n">
-        <v>7.838844444444441</v>
+        <v>7.836000000000005</v>
       </c>
       <c r="F20" t="n">
-        <v>20.49558333333333</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.98369943931132</v>
+        <v>19.98790049751243</v>
       </c>
       <c r="B21" t="n">
-        <v>11.6218057877852</v>
+        <v>11.448</v>
       </c>
       <c r="C21" t="n">
-        <v>29.36953333333333</v>
+        <v>29.32400000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>7.316374010897889</v>
+        <v>7.271661691542286</v>
       </c>
       <c r="E21" t="n">
-        <v>3.636370910570914</v>
+        <v>3.619999999999997</v>
       </c>
       <c r="F21" t="n">
-        <v>11.76046666666665</v>
+        <v>11.756</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>91.40006956528002</v>
+        <v>91.33369154228848</v>
       </c>
       <c r="B22" t="n">
-        <v>82.59939711688959</v>
+        <v>83.22000000000004</v>
       </c>
       <c r="C22" t="n">
-        <v>96.41378973698411</v>
+        <v>96.24399999999994</v>
       </c>
       <c r="D22" t="n">
-        <v>32.77525763821574</v>
+        <v>32.69956218905462</v>
       </c>
       <c r="E22" t="n">
-        <v>23.7914180580628</v>
+        <v>24.072</v>
       </c>
       <c r="F22" t="n">
-        <v>41.53924286824287</v>
+        <v>41.55199999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.42775411829738</v>
+        <v>10.43020895522387</v>
       </c>
       <c r="B23" t="n">
-        <v>5.572160602263236</v>
+        <v>5.756000000000003</v>
       </c>
       <c r="C23" t="n">
-        <v>16.73720000000001</v>
+        <v>16.75600000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>4.643664676616911</v>
+        <v>4.698208955223869</v>
       </c>
       <c r="E23" t="n">
-        <v>1.976146842046842</v>
+        <v>1.956</v>
       </c>
       <c r="F23" t="n">
-        <v>7.808533333333337</v>
+        <v>7.780000000000005</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>33.62200622285391</v>
+        <v>33.5310049751243</v>
       </c>
       <c r="B24" t="n">
-        <v>21.68366701670649</v>
+        <v>21.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>46.30266666666667</v>
+        <v>46.74000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>11.21912631288003</v>
+        <v>11.07791044776118</v>
       </c>
       <c r="E24" t="n">
-        <v>6.501001587301576</v>
+        <v>6.352</v>
       </c>
       <c r="F24" t="n">
-        <v>16.17746666666666</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>29.01897084945632</v>
+        <v>29.01938308457706</v>
       </c>
       <c r="B25" t="n">
-        <v>17.54113000021422</v>
+        <v>17.58399999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>42.48086666666668</v>
+        <v>42.48800000000002</v>
       </c>
       <c r="D25" t="n">
-        <v>8.215969201610987</v>
+        <v>8.238666666666656</v>
       </c>
       <c r="E25" t="n">
-        <v>4.720630110630108</v>
+        <v>4.712000000000002</v>
       </c>
       <c r="F25" t="n">
-        <v>12.90163333333333</v>
+        <v>12.864</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>19.74112327252623</v>
+        <v>19.68107462686567</v>
       </c>
       <c r="B26" t="n">
-        <v>11.66257180510122</v>
+        <v>12.028</v>
       </c>
       <c r="C26" t="n">
-        <v>28.78613333333331</v>
+        <v>28.98799999999998</v>
       </c>
       <c r="D26" t="n">
-        <v>7.323254205164654</v>
+        <v>7.245532338308451</v>
       </c>
       <c r="E26" t="n">
-        <v>3.795877019277019</v>
+        <v>3.871999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>11.35701428571428</v>
+        <v>11.284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>89.25604365319249</v>
+        <v>89.27960199004967</v>
       </c>
       <c r="B27" t="n">
-        <v>78.95771279975251</v>
+        <v>77.36000000000007</v>
       </c>
       <c r="C27" t="n">
-        <v>95.41951629773736</v>
+        <v>95.488</v>
       </c>
       <c r="D27" t="n">
-        <v>38.43669881149798</v>
+        <v>38.20995024875612</v>
       </c>
       <c r="E27" t="n">
-        <v>27.50851427091427</v>
+        <v>26.42400000000002</v>
       </c>
       <c r="F27" t="n">
-        <v>48.82963167388166</v>
+        <v>48.56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>64.51165910131876</v>
+        <v>64.47914427860682</v>
       </c>
       <c r="B28" t="n">
-        <v>47.02352727548207</v>
+        <v>46.96</v>
       </c>
       <c r="C28" t="n">
-        <v>78.39529523809524</v>
+        <v>78.33199999999994</v>
       </c>
       <c r="D28" t="n">
-        <v>20.13711422038433</v>
+        <v>20.01745273631838</v>
       </c>
       <c r="E28" t="n">
-        <v>12.90391216931218</v>
+        <v>12.932</v>
       </c>
       <c r="F28" t="n">
-        <v>27.35301904761908</v>
+        <v>26.852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.6286527363184</v>
+        <v>10.62951243781094</v>
       </c>
       <c r="B29" t="n">
-        <v>5.573493935596569</v>
+        <v>5.876000000000002</v>
       </c>
       <c r="C29" t="n">
-        <v>16.78886666666666</v>
+        <v>16.748</v>
       </c>
       <c r="D29" t="n">
-        <v>4.980703150912091</v>
+        <v>4.975681592039789</v>
       </c>
       <c r="E29" t="n">
-        <v>2.081878835978834</v>
+        <v>2.108000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>8.032366666666674</v>
+        <v>8.188000000000004</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>51.99389444049586</v>
+        <v>51.5341492537312</v>
       </c>
       <c r="B30" t="n">
-        <v>34.2546017664024</v>
+        <v>34.86400000000003</v>
       </c>
       <c r="C30" t="n">
-        <v>66.63327878787878</v>
+        <v>67.03999999999995</v>
       </c>
       <c r="D30" t="n">
-        <v>17.87445296138354</v>
+        <v>17.65840796019899</v>
       </c>
       <c r="E30" t="n">
-        <v>11.03182688792689</v>
+        <v>11.04</v>
       </c>
       <c r="F30" t="n">
-        <v>26.36842857142857</v>
+        <v>26.39599999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84.52823656848035</v>
+        <v>84.53331343283577</v>
       </c>
       <c r="B31" t="n">
-        <v>71.50920549125497</v>
+        <v>72.88800000000006</v>
       </c>
       <c r="C31" t="n">
-        <v>92.21078398268396</v>
+        <v>92.38000000000002</v>
       </c>
       <c r="D31" t="n">
-        <v>28.98596249703857</v>
+        <v>28.92915422885562</v>
       </c>
       <c r="E31" t="n">
-        <v>20.50994503274504</v>
+        <v>20.91199999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>37.34661245421247</v>
+        <v>37.29600000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>88.01481715628196</v>
+        <v>87.92364179104474</v>
       </c>
       <c r="B32" t="n">
-        <v>78.13382172300997</v>
+        <v>77.89599999999996</v>
       </c>
       <c r="C32" t="n">
-        <v>94.39875404765512</v>
+        <v>94.33599999999998</v>
       </c>
       <c r="D32" t="n">
-        <v>28.41929070663985</v>
+        <v>28.34111442786059</v>
       </c>
       <c r="E32" t="n">
-        <v>20.5421746031746</v>
+        <v>20.14000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>36.42798051948054</v>
+        <v>36.42800000000003</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>84.91653431695431</v>
+        <v>84.83287562189042</v>
       </c>
       <c r="B33" t="n">
-        <v>72.99376957281611</v>
+        <v>73.42399999999996</v>
       </c>
       <c r="C33" t="n">
-        <v>92.76936158220862</v>
+        <v>92.70000000000007</v>
       </c>
       <c r="D33" t="n">
-        <v>31.07189207138889</v>
+        <v>31.14280597014909</v>
       </c>
       <c r="E33" t="n">
-        <v>22.29583378103376</v>
+        <v>22.25600000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>40.82319278499276</v>
+        <v>41.12399999999997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>69.3117376293137</v>
+        <v>69.32097512437805</v>
       </c>
       <c r="B34" t="n">
-        <v>53.15585315167576</v>
+        <v>52.852</v>
       </c>
       <c r="C34" t="n">
-        <v>82.79439999999995</v>
+        <v>82.68799999999993</v>
       </c>
       <c r="D34" t="n">
-        <v>27.16320232172463</v>
+        <v>26.91422885572133</v>
       </c>
       <c r="E34" t="n">
-        <v>16.71133333333338</v>
+        <v>17.02799999999998</v>
       </c>
       <c r="F34" t="n">
-        <v>36.38679999999997</v>
+        <v>36.47200000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34.93393806628226</v>
+        <v>34.93156218905462</v>
       </c>
       <c r="B35" t="n">
-        <v>21.7150744241139</v>
+        <v>21.55200000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>48.0748</v>
+        <v>48.3</v>
       </c>
       <c r="D35" t="n">
-        <v>12.04332779357181</v>
+        <v>12.04837810945273</v>
       </c>
       <c r="E35" t="n">
-        <v>6.85806666666666</v>
+        <v>6.852000000000003</v>
       </c>
       <c r="F35" t="n">
-        <v>18.36865555555554</v>
+        <v>18.46000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>60.97639646213366</v>
+        <v>60.85592039800986</v>
       </c>
       <c r="B36" t="n">
-        <v>45.04569589016173</v>
+        <v>44.444</v>
       </c>
       <c r="C36" t="n">
-        <v>76.75423809523812</v>
+        <v>76.13200000000005</v>
       </c>
       <c r="D36" t="n">
-        <v>17.67611077943615</v>
+        <v>17.56887562189053</v>
       </c>
       <c r="E36" t="n">
-        <v>11.14926666666667</v>
+        <v>11.24799999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>25.83206825396827</v>
+        <v>25.708</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>21.09927694859029</v>
+        <v>21.3447562189054</v>
       </c>
       <c r="B37" t="n">
-        <v>12.10169545737487</v>
+        <v>12.35599999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>33.194</v>
+        <v>32.86799999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>8.112073300165825</v>
+        <v>8.34533333333332</v>
       </c>
       <c r="E37" t="n">
-        <v>4.224413131313129</v>
+        <v>4.376000000000002</v>
       </c>
       <c r="F37" t="n">
-        <v>13.10461428571428</v>
+        <v>13.168</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>85.26563143525895</v>
+        <v>85.29954228855709</v>
       </c>
       <c r="B38" t="n">
-        <v>74.25780575970872</v>
+        <v>74.74800000000003</v>
       </c>
       <c r="C38" t="n">
-        <v>93.11629467134175</v>
+        <v>93.12400000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>34.53913115375492</v>
+        <v>34.50931343283577</v>
       </c>
       <c r="E38" t="n">
-        <v>25.56817804232806</v>
+        <v>25.484</v>
       </c>
       <c r="F38" t="n">
-        <v>44.42126227595935</v>
+        <v>43.99600000000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>55.02926036484237</v>
+        <v>55.25890547263679</v>
       </c>
       <c r="B39" t="n">
-        <v>38.68411221741224</v>
+        <v>39.30399999999997</v>
       </c>
       <c r="C39" t="n">
-        <v>70.55466666666668</v>
+        <v>70.82000000000002</v>
       </c>
       <c r="D39" t="n">
-        <v>21.13899502487562</v>
+        <v>21.3508855721393</v>
       </c>
       <c r="E39" t="n">
-        <v>13.46840000000002</v>
+        <v>13.788</v>
       </c>
       <c r="F39" t="n">
-        <v>30.41100000000003</v>
+        <v>30.716</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>17.58098610123981</v>
+        <v>17.52193034825869</v>
       </c>
       <c r="B40" t="n">
-        <v>9.627365145673041</v>
+        <v>10.48400000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>26.2717541125541</v>
+        <v>26.44399999999998</v>
       </c>
       <c r="D40" t="n">
-        <v>5.814313574982224</v>
+        <v>5.762606965174122</v>
       </c>
       <c r="E40" t="n">
-        <v>2.945035220335219</v>
+        <v>2.839999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>9.731973809523812</v>
+        <v>9.771999999999995</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>58.90964510779438</v>
+        <v>58.87178109452722</v>
       </c>
       <c r="B41" t="n">
-        <v>41.77207566137567</v>
+        <v>42.40400000000002</v>
       </c>
       <c r="C41" t="n">
-        <v>73.47799999999999</v>
+        <v>73.336</v>
       </c>
       <c r="D41" t="n">
-        <v>15.72345221511489</v>
+        <v>15.72694527363183</v>
       </c>
       <c r="E41" t="n">
-        <v>10.38999682539684</v>
+        <v>10.37599999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>22.19566666666666</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>78.38510745191782</v>
+        <v>78.34700497512422</v>
       </c>
       <c r="B42" t="n">
-        <v>64.23212476157597</v>
+        <v>63.20399999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>88.60495164835169</v>
+        <v>88.67600000000002</v>
       </c>
       <c r="D42" t="n">
-        <v>29.34891281686801</v>
+        <v>29.30533333333329</v>
       </c>
       <c r="E42" t="n">
-        <v>19.87304333814334</v>
+        <v>19.612</v>
       </c>
       <c r="F42" t="n">
-        <v>39.55651825396824</v>
+        <v>39.496</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>51.9871150043433</v>
+        <v>51.52706467661677</v>
       </c>
       <c r="B43" t="n">
-        <v>34.23535631185694</v>
+        <v>34.91200000000003</v>
       </c>
       <c r="C43" t="n">
-        <v>66.50354545454545</v>
+        <v>67.03199999999994</v>
       </c>
       <c r="D43" t="n">
-        <v>17.84978828476663</v>
+        <v>17.65044776119402</v>
       </c>
       <c r="E43" t="n">
-        <v>11.0436014911015</v>
+        <v>11.048</v>
       </c>
       <c r="F43" t="n">
-        <v>26.36842857142857</v>
+        <v>26.34399999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>72.34593145384176</v>
+        <v>72.37426865671637</v>
       </c>
       <c r="B44" t="n">
-        <v>56.25464327894326</v>
+        <v>54.69600000000002</v>
       </c>
       <c r="C44" t="n">
-        <v>84.75163333333334</v>
+        <v>84.66000000000004</v>
       </c>
       <c r="D44" t="n">
-        <v>19.76391076759059</v>
+        <v>19.76847761194028</v>
       </c>
       <c r="E44" t="n">
-        <v>12.7719650793651</v>
+        <v>12.708</v>
       </c>
       <c r="F44" t="n">
-        <v>26.5329261904762</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>79.84136299455101</v>
+        <v>80.06700497512423</v>
       </c>
       <c r="B45" t="n">
-        <v>66.34522295315625</v>
+        <v>68.48799999999996</v>
       </c>
       <c r="C45" t="n">
-        <v>89.63897619047619</v>
+        <v>89.62799999999997</v>
       </c>
       <c r="D45" t="n">
-        <v>32.65114751243773</v>
+        <v>32.9193233830845</v>
       </c>
       <c r="E45" t="n">
-        <v>23.06948888888892</v>
+        <v>23.39199999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>41.8140523809524</v>
+        <v>42.05599999999998</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>83.25381757877264</v>
+        <v>83.25964179104457</v>
       </c>
       <c r="B46" t="n">
-        <v>70.44749650829893</v>
+        <v>71.09999999999998</v>
       </c>
       <c r="C46" t="n">
-        <v>91.70527272727271</v>
+        <v>91.792</v>
       </c>
       <c r="D46" t="n">
-        <v>26.02840279554599</v>
+        <v>26.10155223880591</v>
       </c>
       <c r="E46" t="n">
-        <v>17.8653619047619</v>
+        <v>17.9</v>
       </c>
       <c r="F46" t="n">
-        <v>33.95844047619045</v>
+        <v>34.18799999999997</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>91.42871299168242</v>
+        <v>91.4536119402984</v>
       </c>
       <c r="B47" t="n">
-        <v>82.58875476407333</v>
+        <v>83.08799999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>96.42728437374832</v>
+        <v>96.60400000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>34.82900960780504</v>
+        <v>34.75609950248747</v>
       </c>
       <c r="E47" t="n">
-        <v>25.21283930348406</v>
+        <v>25.00399999999998</v>
       </c>
       <c r="F47" t="n">
-        <v>43.30023600288604</v>
+        <v>43.77599999999998</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.35130082918731</v>
+        <v>53.12694527363172</v>
       </c>
       <c r="B48" t="n">
-        <v>35.85596792585354</v>
+        <v>35.28399999999998</v>
       </c>
       <c r="C48" t="n">
-        <v>70.16966666666663</v>
+        <v>69.53599999999996</v>
       </c>
       <c r="D48" t="n">
-        <v>19.50869452736317</v>
+        <v>19.36923383084577</v>
       </c>
       <c r="E48" t="n">
-        <v>11.98837647907649</v>
+        <v>11.632</v>
       </c>
       <c r="F48" t="n">
-        <v>28.1874</v>
+        <v>28.09199999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16.0653639737819</v>
+        <v>16.08983084577113</v>
       </c>
       <c r="B49" t="n">
-        <v>9.071893463651355</v>
+        <v>9.372000000000007</v>
       </c>
       <c r="C49" t="n">
-        <v>24.98811601731601</v>
+        <v>24.66</v>
       </c>
       <c r="D49" t="n">
-        <v>4.9483913172234</v>
+        <v>4.994427860696513</v>
       </c>
       <c r="E49" t="n">
-        <v>2.400544733044736</v>
+        <v>2.579999999999998</v>
       </c>
       <c r="F49" t="n">
-        <v>8.07666984126984</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20.8933357024401</v>
+        <v>21.05671641791035</v>
       </c>
       <c r="B50" t="n">
-        <v>12.04425534193476</v>
+        <v>11.74</v>
       </c>
       <c r="C50" t="n">
-        <v>32.36399999999998</v>
+        <v>32.40799999999997</v>
       </c>
       <c r="D50" t="n">
-        <v>8.057512437810932</v>
+        <v>8.237452736318398</v>
       </c>
       <c r="E50" t="n">
-        <v>4.029879797979798</v>
+        <v>4.12</v>
       </c>
       <c r="F50" t="n">
-        <v>12.97490000000001</v>
+        <v>13.07199999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.964916970702035</v>
+        <v>7.012517412935312</v>
       </c>
       <c r="B51" t="n">
-        <v>3.566837418137418</v>
+        <v>3.472000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>12.0477619047619</v>
+        <v>11.7</v>
       </c>
       <c r="D51" t="n">
-        <v>2.490516038853338</v>
+        <v>2.503542288557199</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9762285714285713</v>
+        <v>0.9399999999999997</v>
       </c>
       <c r="F51" t="n">
-        <v>4.385569047619041</v>
+        <v>4.311999999999997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>81.72473189607516</v>
+        <v>81.69094527363185</v>
       </c>
       <c r="B52" t="n">
-        <v>68.4579953712954</v>
+        <v>66.77199999999998</v>
       </c>
       <c r="C52" t="n">
-        <v>90.46484733044731</v>
+        <v>90.45199999999997</v>
       </c>
       <c r="D52" t="n">
-        <v>23.31918395719809</v>
+        <v>23.21361194029843</v>
       </c>
       <c r="E52" t="n">
-        <v>16.37042063492063</v>
+        <v>16.27599999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>30.24466428571428</v>
+        <v>30.10400000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>55.11338640132663</v>
+        <v>55.34595024875616</v>
       </c>
       <c r="B53" t="n">
-        <v>38.69744555074558</v>
+        <v>39.27999999999997</v>
       </c>
       <c r="C53" t="n">
-        <v>70.758</v>
+        <v>71.404</v>
       </c>
       <c r="D53" t="n">
-        <v>20.85609751243781</v>
+        <v>21.1382686567164</v>
       </c>
       <c r="E53" t="n">
-        <v>13.36133333333336</v>
+        <v>13.55599999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>29.69299999999999</v>
+        <v>29.94799999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.385434352049289</v>
+        <v>9.366447761194022</v>
       </c>
       <c r="B54" t="n">
-        <v>5.100158711561341</v>
+        <v>4.895999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>15.06512380952381</v>
+        <v>15.03200000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>4.194684300718621</v>
+        <v>4.166507462686559</v>
       </c>
       <c r="E54" t="n">
-        <v>1.877006793206795</v>
+        <v>1.839999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>7.044630952380952</v>
+        <v>7.083999999999998</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19.78697859906814</v>
+        <v>19.68461691542289</v>
       </c>
       <c r="B55" t="n">
-        <v>11.64492844290786</v>
+        <v>11.53200000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>29.37753333333332</v>
+        <v>29.61599999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>7.315398886519779</v>
+        <v>7.240278606965172</v>
       </c>
       <c r="E55" t="n">
-        <v>3.633570910570914</v>
+        <v>3.619999999999997</v>
       </c>
       <c r="F55" t="n">
-        <v>11.71551428571427</v>
+        <v>11.724</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>84.55627403195643</v>
+        <v>84.30240796019883</v>
       </c>
       <c r="B56" t="n">
-        <v>71.55377398572345</v>
+        <v>71.30000000000004</v>
       </c>
       <c r="C56" t="n">
-        <v>92.460544011544</v>
+        <v>91.96400000000006</v>
       </c>
       <c r="D56" t="n">
-        <v>28.621939113954</v>
+        <v>28.57586069651737</v>
       </c>
       <c r="E56" t="n">
-        <v>19.9612339216339</v>
+        <v>19.73200000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>36.94040476190472</v>
+        <v>36.74799999999996</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>88.01481715628196</v>
+        <v>87.9219701492537</v>
       </c>
       <c r="B57" t="n">
-        <v>78.13382172300997</v>
+        <v>77.91999999999996</v>
       </c>
       <c r="C57" t="n">
-        <v>94.41081119051226</v>
+        <v>94.35199999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>28.40139020912741</v>
+        <v>28.34131343283572</v>
       </c>
       <c r="E57" t="n">
-        <v>20.5452773958068</v>
+        <v>20.18000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>36.34993290043292</v>
+        <v>36.42800000000003</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>21.2460375898285</v>
+        <v>21.46837810945262</v>
       </c>
       <c r="B58" t="n">
-        <v>12.15546424044365</v>
+        <v>12.6</v>
       </c>
       <c r="C58" t="n">
-        <v>33.93799999999999</v>
+        <v>33.55599999999998</v>
       </c>
       <c r="D58" t="n">
-        <v>8.105277280265323</v>
+        <v>8.302507462686556</v>
       </c>
       <c r="E58" t="n">
-        <v>4.193524242424235</v>
+        <v>4.348000000000003</v>
       </c>
       <c r="F58" t="n">
-        <v>13.18461428571429</v>
+        <v>13.352</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>76.53896577167062</v>
+        <v>76.51168159203964</v>
       </c>
       <c r="B59" t="n">
-        <v>59.83144735732105</v>
+        <v>60.11999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>87.58478730158731</v>
+        <v>87.78400000000002</v>
       </c>
       <c r="D59" t="n">
-        <v>25.21399823501525</v>
+        <v>25.29745273631822</v>
       </c>
       <c r="E59" t="n">
-        <v>16.60983703703702</v>
+        <v>16.72000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>34.15870617715618</v>
+        <v>34.08399999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10.40142067440572</v>
+        <v>10.3941094527363</v>
       </c>
       <c r="B60" t="n">
-        <v>5.528608509911144</v>
+        <v>5.336</v>
       </c>
       <c r="C60" t="n">
-        <v>16.33000000000001</v>
+        <v>16.32800000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>4.632580099502484</v>
+        <v>4.728676616915411</v>
       </c>
       <c r="E60" t="n">
-        <v>1.954145502645503</v>
+        <v>2.016</v>
       </c>
       <c r="F60" t="n">
-        <v>7.704333333333331</v>
+        <v>7.655999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>85.12956825405095</v>
+        <v>85.09611940298501</v>
       </c>
       <c r="B61" t="n">
-        <v>73.49408784136673</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>92.92711396316099</v>
+        <v>92.684</v>
       </c>
       <c r="D61" t="n">
-        <v>32.89156349349916</v>
+        <v>32.98841791044764</v>
       </c>
       <c r="E61" t="n">
-        <v>22.89474601139601</v>
+        <v>22.77199999999998</v>
       </c>
       <c r="F61" t="n">
-        <v>43.23306989611697</v>
+        <v>43.05999999999998</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>77.72039645280088</v>
+        <v>77.74272636815907</v>
       </c>
       <c r="B62" t="n">
-        <v>63.2553095259344</v>
+        <v>64.22799999999998</v>
       </c>
       <c r="C62" t="n">
-        <v>88.46478656898657</v>
+        <v>88.66399999999997</v>
       </c>
       <c r="D62" t="n">
-        <v>27.25136948590374</v>
+        <v>27.42630845771135</v>
       </c>
       <c r="E62" t="n">
-        <v>18.82429206349207</v>
+        <v>18.868</v>
       </c>
       <c r="F62" t="n">
-        <v>35.67468333333331</v>
+        <v>35.78399999999998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>85.76635671641789</v>
+        <v>85.721910447761</v>
       </c>
       <c r="B63" t="n">
-        <v>74.53085612600911</v>
+        <v>75.29599999999994</v>
       </c>
       <c r="C63" t="n">
-        <v>93.04235700900408</v>
+        <v>93.17599999999993</v>
       </c>
       <c r="D63" t="n">
-        <v>36.59708743188806</v>
+        <v>36.52254726368144</v>
       </c>
       <c r="E63" t="n">
-        <v>25.60622539682542</v>
+        <v>26.024</v>
       </c>
       <c r="F63" t="n">
-        <v>46.16038253968254</v>
+        <v>46.056</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.53348435599777</v>
+        <v>10.51968159203979</v>
       </c>
       <c r="B64" t="n">
-        <v>5.542756128958763</v>
+        <v>5.692</v>
       </c>
       <c r="C64" t="n">
-        <v>16.47833333333334</v>
+        <v>16.476</v>
       </c>
       <c r="D64" t="n">
-        <v>4.713614925373129</v>
+        <v>4.827960199004963</v>
       </c>
       <c r="E64" t="n">
-        <v>1.979923280423281</v>
+        <v>2.052</v>
       </c>
       <c r="F64" t="n">
-        <v>8.131700000000007</v>
+        <v>7.964000000000004</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>87.39281524915098</v>
+        <v>87.42113432835809</v>
       </c>
       <c r="B65" t="n">
-        <v>77.80749140100451</v>
+        <v>77.69600000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>94.07244391392923</v>
+        <v>93.83600000000003</v>
       </c>
       <c r="D65" t="n">
-        <v>25.93313597093892</v>
+        <v>25.97156218905472</v>
       </c>
       <c r="E65" t="n">
-        <v>18.53529985569985</v>
+        <v>18.652</v>
       </c>
       <c r="F65" t="n">
-        <v>33.34905238095237</v>
+        <v>33.37200000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68.32181207843193</v>
+        <v>68.19902487562182</v>
       </c>
       <c r="B66" t="n">
-        <v>52.04917373923634</v>
+        <v>50.89200000000002</v>
       </c>
       <c r="C66" t="n">
-        <v>82.23031111111104</v>
+        <v>82.16799999999995</v>
       </c>
       <c r="D66" t="n">
-        <v>25.75387604832963</v>
+        <v>25.73880597014912</v>
       </c>
       <c r="E66" t="n">
-        <v>16.60266666666671</v>
+        <v>16.81199999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>35.45928095238096</v>
+        <v>35.69600000000002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>67.26316112822127</v>
+        <v>66.95753233830837</v>
       </c>
       <c r="B67" t="n">
-        <v>50.31864397208669</v>
+        <v>50.68800000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>80.64227222222223</v>
+        <v>80.75200000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>23.9410543670535</v>
+        <v>23.78567164179095</v>
       </c>
       <c r="E67" t="n">
-        <v>15.83695238095239</v>
+        <v>16.03599999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>34.19430873015873</v>
+        <v>34.18800000000002</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>18.91639307167862</v>
+        <v>18.91576119402984</v>
       </c>
       <c r="B68" t="n">
-        <v>11.35847681305623</v>
+        <v>11.144</v>
       </c>
       <c r="C68" t="n">
-        <v>28.94553333333332</v>
+        <v>28.85599999999998</v>
       </c>
       <c r="D68" t="n">
-        <v>6.585841127694846</v>
+        <v>6.653373134328345</v>
       </c>
       <c r="E68" t="n">
-        <v>3.49163396973397</v>
+        <v>3.535999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>10.74901349206349</v>
+        <v>10.812</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>91.54477506310721</v>
+        <v>91.5861094527362</v>
       </c>
       <c r="B69" t="n">
-        <v>82.89987727291695</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>96.56505074648059</v>
+        <v>96.73200000000008</v>
       </c>
       <c r="D69" t="n">
-        <v>34.91725554478678</v>
+        <v>35.07759203980091</v>
       </c>
       <c r="E69" t="n">
-        <v>25.36080597015074</v>
+        <v>25.48799999999998</v>
       </c>
       <c r="F69" t="n">
-        <v>44.32240173160177</v>
+        <v>45.46000000000003</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>17.62507056779589</v>
+        <v>17.59870646766168</v>
       </c>
       <c r="B70" t="n">
-        <v>9.612854034561931</v>
+        <v>9.904000000000007</v>
       </c>
       <c r="C70" t="n">
-        <v>26.35262077922077</v>
+        <v>26.452</v>
       </c>
       <c r="D70" t="n">
-        <v>5.865554371002123</v>
+        <v>5.825393034825859</v>
       </c>
       <c r="E70" t="n">
-        <v>2.934104761904761</v>
+        <v>2.912</v>
       </c>
       <c r="F70" t="n">
-        <v>9.623373809523805</v>
+        <v>9.503999999999996</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>42.57612570480919</v>
+        <v>42.62117412935316</v>
       </c>
       <c r="B71" t="n">
-        <v>27.7559555184971</v>
+        <v>27.52000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>57.0956666666667</v>
+        <v>56.91200000000004</v>
       </c>
       <c r="D71" t="n">
-        <v>10.98643864013267</v>
+        <v>11.04045771144278</v>
       </c>
       <c r="E71" t="n">
-        <v>6.409790476190473</v>
+        <v>6.383999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>16.86164285714287</v>
+        <v>16.964</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>48.12284637131786</v>
+        <v>48.28242786069637</v>
       </c>
       <c r="B72" t="n">
-        <v>31.56017475606495</v>
+        <v>29.87200000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>63.34578571428574</v>
+        <v>62.15600000000003</v>
       </c>
       <c r="D72" t="n">
-        <v>14.77838582484403</v>
+        <v>14.9302288557214</v>
       </c>
       <c r="E72" t="n">
-        <v>9.212295238095248</v>
+        <v>9.179999999999996</v>
       </c>
       <c r="F72" t="n">
-        <v>21.52681904761903</v>
+        <v>21.55599999999999</v>
       </c>
     </row>
   </sheetData>
